--- a/202304/02_詳細設計書/01_詳細設計書/チーム2/2023.4.7詳細設計書_社員情報一覧（チョウセキ).xlsx
+++ b/202304/02_詳細設計書/01_詳細設計書/チーム2/2023.4.7詳細設計書_社員情報一覧（チョウセキ).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7660" tabRatio="758" activeTab="4"/>
+    <workbookView windowWidth="19200" windowHeight="7660" tabRatio="758" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="69" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="111">
   <si>
     <t>詳細設計書</t>
   </si>
@@ -108,7 +108,7 @@
     <t>社員ID　</t>
   </si>
   <si>
-    <t>USER_ID</t>
+    <t>EMPLOYEE_ID</t>
   </si>
   <si>
     <t>I</t>
@@ -172,9 +172,6 @@
   </si>
   <si>
     <t>label</t>
-  </si>
-  <si>
-    <t>EMPLOYEE_ID</t>
   </si>
   <si>
     <t>所属</t>
@@ -286,11 +283,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <charset val="128"/>
-      </rPr>
       <t xml:space="preserve">       select 
        </t>
     </r>
@@ -308,14 +300,14 @@
         <rFont val="ＭＳ ゴシック"/>
         <charset val="128"/>
       </rPr>
-      <t>EMPLOYEE_ID，JOIN_DATE，EMPLOYEE_NAME，EMPLOYEE_GENDERID，EMPLOYEE_AGE，EMPLOYEE_DEPATMENTID
+      <t>社員ID，入社年月日，所属
         from T_EMPLOYEE
         &lt;where&gt;
-            &lt;if test="EMPLOYEE_ID!=null and name!=''"&gt;
-                EMPLOYEE_ID like '%' #{EMPLOYEE_ID} '%'
+            &lt;if test="社員ID!=null and name!=''"&gt;
+                社員ID like '%' #{社員ID} '%'
             &lt;/if&gt;
-            &lt;if test="EMPLOYEE_DEPATMENTID!=null and EMPLOYEE_DEPATMENTID!=''"&gt;
-                and EMPLOYEE_DEPATMENTID like '%' #{EMPLOYEE_DEPATMENTID} '%'
+            &lt;if test="所属!=null and 所属!=''"&gt;
+                and 所属 like '%' #{所属} '%'
             &lt;/if&gt;
             &lt;if test="left入社年月日!=null and left入社年月日!=''"&gt;
                 and left入社年月日 &amp;gt; #{left入社年月日}
@@ -375,10 +367,10 @@
     <t>②削除確認</t>
   </si>
   <si>
-    <t>削除確認メッセージを表示する。「はい」をクリックする場合、7-2処理へ。「いいえ」をクリックする場合、処理を中止する。</t>
+    <t>削除確認メッセージを表示する。「はい」OKボタンをクリックすると、削除処理が実行される。「いいえ」をクリックする場合、処理を中止する。</t>
   </si>
   <si>
-    <t>I0001</t>
+    <t>E0002</t>
   </si>
   <si>
     <t>選択した勤怠実績を削除してもよろしいですか。</t>
@@ -387,7 +379,7 @@
     <t>2.削除処理</t>
   </si>
   <si>
-    <t>・選択した社員情報削除する。</t>
+    <t>・選択した社員情報論理削除する。</t>
   </si>
   <si>
     <t>1.6.ログアウトボタンクリック処理</t>
@@ -399,10 +391,7 @@
     <t>1.7.検索処理</t>
   </si>
   <si>
-    <t>社員ID、所属、入社年月日の入力有無により、組み合わせた条件で検索を実施する</t>
-  </si>
-  <si>
-    <t>各項目に入力の無い場合は、項目を検索条件から外す</t>
+    <t>・検査結果は社員情報一覧で表示される。</t>
   </si>
 </sst>
 </file>
@@ -2089,20 +2078,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>8255</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>116205</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>44</xdr:col>
-      <xdr:colOff>125730</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>126365</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>29210</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPr id="3" name="图片 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2115,8 +2104,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="380365" y="517525"/>
-          <a:ext cx="7931785" cy="5438140"/>
+          <a:off x="860425" y="688975"/>
+          <a:ext cx="6708140" cy="4556760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5656,7 +5645,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="U14" sqref="U14:AZ14"/>
+      <selection pane="bottomLeft" activeCell="K5" sqref="K5:T5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.66363636363636" defaultRowHeight="9.5"/>
@@ -5877,7 +5866,9 @@
       <c r="H5" s="118"/>
       <c r="I5" s="118"/>
       <c r="J5" s="118"/>
-      <c r="K5" s="118"/>
+      <c r="K5" s="118" t="s">
+        <v>10</v>
+      </c>
       <c r="L5" s="118"/>
       <c r="M5" s="118"/>
       <c r="N5" s="118"/>
@@ -8869,7 +8860,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:AZ59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="BD23" sqref="BD23"/>
     </sheetView>
   </sheetViews>
@@ -12078,7 +12069,7 @@
   <dimension ref="A1:AZ52"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="X34" sqref="X34:AZ34"/>
+      <selection activeCell="B34" sqref="B34:K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.66363636363636" defaultRowHeight="9.5"/>
@@ -15178,10 +15169,10 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:BC54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="S20" sqref="S20:T20"/>
+      <selection pane="bottomLeft" activeCell="U18" sqref="U18:AA18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.66363636363636" defaultRowHeight="9.5"/>
@@ -15521,7 +15512,7 @@
       <c r="AH6" s="61"/>
       <c r="AI6" s="61"/>
       <c r="AJ6" s="61" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="AK6" s="61"/>
       <c r="AL6" s="61"/>
@@ -15549,7 +15540,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="62" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C7" s="63"/>
       <c r="D7" s="63"/>
@@ -15561,7 +15552,7 @@
       <c r="J7" s="63"/>
       <c r="K7" s="68"/>
       <c r="L7" s="61" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M7" s="61"/>
       <c r="N7" s="61"/>
@@ -15689,7 +15680,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="62" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C9" s="63"/>
       <c r="D9" s="63"/>
@@ -15701,7 +15692,7 @@
       <c r="J9" s="63"/>
       <c r="K9" s="68"/>
       <c r="L9" s="61" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M9" s="61"/>
       <c r="N9" s="61"/>
@@ -15710,7 +15701,7 @@
       <c r="Q9" s="72"/>
       <c r="R9" s="72"/>
       <c r="S9" s="72" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T9" s="72"/>
       <c r="U9" s="61"/>
@@ -15755,7 +15746,7 @@
         <v>5</v>
       </c>
       <c r="B10" s="62" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C10" s="63"/>
       <c r="D10" s="63"/>
@@ -15767,7 +15758,7 @@
       <c r="J10" s="63"/>
       <c r="K10" s="68"/>
       <c r="L10" s="61" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M10" s="61"/>
       <c r="N10" s="61"/>
@@ -15776,7 +15767,7 @@
       <c r="Q10" s="72"/>
       <c r="R10" s="72"/>
       <c r="S10" s="72" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T10" s="72"/>
       <c r="U10" s="61"/>
@@ -15821,7 +15812,7 @@
         <v>6</v>
       </c>
       <c r="B11" s="62" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C11" s="63"/>
       <c r="D11" s="63"/>
@@ -15833,7 +15824,7 @@
       <c r="J11" s="63"/>
       <c r="K11" s="68"/>
       <c r="L11" s="61" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M11" s="61"/>
       <c r="N11" s="61"/>
@@ -15842,7 +15833,7 @@
       <c r="Q11" s="72"/>
       <c r="R11" s="72"/>
       <c r="S11" s="72" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T11" s="72"/>
       <c r="U11" s="61"/>
@@ -15863,7 +15854,7 @@
       <c r="AH11" s="61"/>
       <c r="AI11" s="61"/>
       <c r="AJ11" s="76" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AK11" s="77"/>
       <c r="AL11" s="77"/>
@@ -15890,7 +15881,7 @@
         <v>7</v>
       </c>
       <c r="B12" s="62" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C12" s="63"/>
       <c r="D12" s="63"/>
@@ -15902,7 +15893,7 @@
       <c r="J12" s="63"/>
       <c r="K12" s="68"/>
       <c r="L12" s="61" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M12" s="61"/>
       <c r="N12" s="61"/>
@@ -15911,7 +15902,7 @@
       <c r="Q12" s="72"/>
       <c r="R12" s="72"/>
       <c r="S12" s="72" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T12" s="72"/>
       <c r="U12" s="61"/>
@@ -15956,7 +15947,7 @@
         <v>8</v>
       </c>
       <c r="B13" s="62" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C13" s="63"/>
       <c r="D13" s="63"/>
@@ -15968,7 +15959,7 @@
       <c r="J13" s="63"/>
       <c r="K13" s="68"/>
       <c r="L13" s="61" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M13" s="61"/>
       <c r="N13" s="61"/>
@@ -15977,7 +15968,7 @@
       <c r="Q13" s="72"/>
       <c r="R13" s="72"/>
       <c r="S13" s="72" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T13" s="72"/>
       <c r="U13" s="61"/>
@@ -16022,7 +16013,7 @@
         <v>9</v>
       </c>
       <c r="B14" s="62" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C14" s="63"/>
       <c r="D14" s="63"/>
@@ -16034,7 +16025,7 @@
       <c r="J14" s="63"/>
       <c r="K14" s="68"/>
       <c r="L14" s="61" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M14" s="61"/>
       <c r="N14" s="61"/>
@@ -16043,7 +16034,7 @@
       <c r="Q14" s="72"/>
       <c r="R14" s="72"/>
       <c r="S14" s="72" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T14" s="72"/>
       <c r="U14" s="61"/>
@@ -16064,7 +16055,7 @@
       <c r="AH14" s="61"/>
       <c r="AI14" s="61"/>
       <c r="AJ14" s="61" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="AK14" s="61"/>
       <c r="AL14" s="61"/>
@@ -16092,7 +16083,7 @@
         <v>10</v>
       </c>
       <c r="B15" s="62" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C15" s="63"/>
       <c r="D15" s="63"/>
@@ -16134,7 +16125,7 @@
       <c r="AH15" s="61"/>
       <c r="AI15" s="61"/>
       <c r="AJ15" s="76" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AK15" s="77"/>
       <c r="AL15" s="77"/>
@@ -16162,7 +16153,7 @@
         <v>11</v>
       </c>
       <c r="B16" s="62" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C16" s="63"/>
       <c r="D16" s="63"/>
@@ -16204,7 +16195,7 @@
       <c r="AH16" s="61"/>
       <c r="AI16" s="61"/>
       <c r="AJ16" s="76" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AK16" s="77"/>
       <c r="AL16" s="77"/>
@@ -16232,7 +16223,7 @@
         <v>12</v>
       </c>
       <c r="B17" s="62" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C17" s="63"/>
       <c r="D17" s="63"/>
@@ -16253,7 +16244,7 @@
       <c r="Q17" s="72"/>
       <c r="R17" s="72"/>
       <c r="S17" s="72">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T17" s="72"/>
       <c r="U17" s="61"/>
@@ -16274,7 +16265,7 @@
       <c r="AH17" s="61"/>
       <c r="AI17" s="61"/>
       <c r="AJ17" s="61" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AK17" s="61"/>
       <c r="AL17" s="61"/>
@@ -16302,7 +16293,7 @@
         <v>13</v>
       </c>
       <c r="B18" s="62" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C18" s="63"/>
       <c r="D18" s="63"/>
@@ -16344,7 +16335,7 @@
       <c r="AH18" s="61"/>
       <c r="AI18" s="61"/>
       <c r="AJ18" s="61" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AK18" s="61"/>
       <c r="AL18" s="61"/>
@@ -16372,7 +16363,7 @@
         <v>14</v>
       </c>
       <c r="B19" s="62" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C19" s="63"/>
       <c r="D19" s="63"/>
@@ -16414,7 +16405,7 @@
       <c r="AH19" s="61"/>
       <c r="AI19" s="61"/>
       <c r="AJ19" s="61" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AK19" s="61"/>
       <c r="AL19" s="61"/>
@@ -16442,7 +16433,7 @@
         <v>15</v>
       </c>
       <c r="B20" s="62" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C20" s="63"/>
       <c r="D20" s="63"/>
@@ -16484,7 +16475,7 @@
       <c r="AH20" s="61"/>
       <c r="AI20" s="61"/>
       <c r="AJ20" s="61" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AK20" s="61"/>
       <c r="AL20" s="61"/>
@@ -18964,10 +18955,10 @@
   <sheetPr/>
   <dimension ref="A1:AZ118"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="120" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="120" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B69" sqref="B69"/>
+      <selection pane="bottomLeft" activeCell="I95" sqref="I95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.66363636363636" defaultRowHeight="9.5"/>
@@ -18989,7 +18980,7 @@
       <c r="I1" s="3"/>
       <c r="J1" s="22"/>
       <c r="K1" s="23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L1" s="23"/>
       <c r="M1" s="23"/>
@@ -19058,7 +19049,7 @@
       <c r="I2" s="5"/>
       <c r="J2" s="25"/>
       <c r="K2" s="26" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L2" s="26"/>
       <c r="M2" s="26"/>
@@ -19120,7 +19111,7 @@
     </row>
     <row r="4" spans="1:52">
       <c r="A4" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
@@ -19231,7 +19222,7 @@
     <row r="6" spans="1:52">
       <c r="A6" s="11"/>
       <c r="B6" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
@@ -19342,7 +19333,7 @@
       <c r="A8" s="11"/>
       <c r="B8" s="12"/>
       <c r="C8" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
@@ -19457,7 +19448,7 @@
         <v>23</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G10" s="15"/>
       <c r="H10" s="15"/>
@@ -19466,7 +19457,7 @@
       <c r="K10" s="15"/>
       <c r="L10" s="28"/>
       <c r="M10" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N10" s="15"/>
       <c r="O10" s="28"/>
@@ -19517,7 +19508,7 @@
         <v>1</v>
       </c>
       <c r="F11" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G11" s="18"/>
       <c r="H11" s="18"/>
@@ -19526,7 +19517,7 @@
       <c r="K11" s="18"/>
       <c r="L11" s="29"/>
       <c r="M11" s="18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N11" s="18"/>
       <c r="O11" s="29"/>
@@ -19577,7 +19568,7 @@
         <v>2</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G12" s="18"/>
       <c r="H12" s="18"/>
@@ -19586,7 +19577,7 @@
       <c r="K12" s="18"/>
       <c r="L12" s="29"/>
       <c r="M12" s="18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N12" s="18"/>
       <c r="O12" s="29"/>
@@ -19637,7 +19628,7 @@
         <v>3</v>
       </c>
       <c r="F13" s="17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G13" s="18"/>
       <c r="H13" s="18"/>
@@ -19646,7 +19637,7 @@
       <c r="K13" s="18"/>
       <c r="L13" s="29"/>
       <c r="M13" s="18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N13" s="18"/>
       <c r="O13" s="29"/>
@@ -19697,7 +19688,7 @@
         <v>4</v>
       </c>
       <c r="F14" s="17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G14" s="18"/>
       <c r="H14" s="18"/>
@@ -19706,7 +19697,7 @@
       <c r="K14" s="18"/>
       <c r="L14" s="29"/>
       <c r="M14" s="18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N14" s="18"/>
       <c r="O14" s="29"/>
@@ -19757,7 +19748,7 @@
         <v>5</v>
       </c>
       <c r="F15" s="17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G15" s="18"/>
       <c r="H15" s="18"/>
@@ -19766,7 +19757,7 @@
       <c r="K15" s="18"/>
       <c r="L15" s="29"/>
       <c r="M15" s="18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N15" s="18"/>
       <c r="O15" s="29"/>
@@ -19919,7 +19910,7 @@
     <row r="18" spans="1:52">
       <c r="A18" s="11"/>
       <c r="B18" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C18" s="12"/>
       <c r="D18" s="12"/>
@@ -20031,7 +20022,7 @@
       <c r="B20" s="12"/>
       <c r="C20" s="12"/>
       <c r="D20" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E20" s="15"/>
       <c r="F20" s="15"/>
@@ -20200,7 +20191,7 @@
       <c r="C23" s="12"/>
       <c r="D23" s="11"/>
       <c r="E23" s="12" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="F23" s="12"/>
       <c r="G23" s="12"/>
@@ -20255,9 +20246,7 @@
       <c r="B24" s="12"/>
       <c r="C24" s="12"/>
       <c r="D24" s="11"/>
-      <c r="E24" s="12" t="s">
-        <v>64</v>
-      </c>
+      <c r="E24" s="12"/>
       <c r="F24" s="12"/>
       <c r="G24" s="12"/>
       <c r="H24" s="12"/>
@@ -20311,9 +20300,7 @@
       <c r="B25" s="12"/>
       <c r="C25" s="12"/>
       <c r="D25" s="11"/>
-      <c r="E25" s="12" t="s">
-        <v>66</v>
-      </c>
+      <c r="E25" s="12"/>
       <c r="F25" s="12"/>
       <c r="G25" s="12"/>
       <c r="H25" s="12"/>
@@ -20367,9 +20354,7 @@
       <c r="B26" s="12"/>
       <c r="C26" s="12"/>
       <c r="D26" s="11"/>
-      <c r="E26" s="12" t="s">
-        <v>68</v>
-      </c>
+      <c r="E26" s="12"/>
       <c r="F26" s="12"/>
       <c r="G26" s="12"/>
       <c r="H26" s="12"/>
@@ -20423,9 +20408,7 @@
       <c r="B27" s="12"/>
       <c r="C27" s="12"/>
       <c r="D27" s="11"/>
-      <c r="E27" s="12" t="s">
-        <v>50</v>
-      </c>
+      <c r="E27" s="12"/>
       <c r="F27" s="12"/>
       <c r="G27" s="12"/>
       <c r="H27" s="12"/>
@@ -20479,9 +20462,7 @@
       <c r="B28" s="12"/>
       <c r="C28" s="12"/>
       <c r="D28" s="11"/>
-      <c r="E28" s="12" t="s">
-        <v>70</v>
-      </c>
+      <c r="E28" s="12"/>
       <c r="F28" s="12"/>
       <c r="G28" s="12"/>
       <c r="H28" s="12"/>
@@ -20535,9 +20516,7 @@
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
       <c r="D29" s="11"/>
-      <c r="E29" s="12" t="s">
-        <v>72</v>
-      </c>
+      <c r="E29" s="12"/>
       <c r="F29" s="12"/>
       <c r="G29" s="12"/>
       <c r="H29" s="12"/>
@@ -21189,7 +21168,7 @@
       <c r="B41" s="12"/>
       <c r="C41" s="12"/>
       <c r="D41" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E41" s="15"/>
       <c r="F41" s="15"/>
@@ -21246,7 +21225,7 @@
       <c r="C42" s="12"/>
       <c r="D42" s="11"/>
       <c r="E42" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F42" s="19"/>
       <c r="G42" s="19"/>
@@ -21355,7 +21334,7 @@
       <c r="B44" s="12"/>
       <c r="C44" s="12"/>
       <c r="D44" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E44" s="15"/>
       <c r="F44" s="15"/>
@@ -21412,7 +21391,7 @@
       <c r="C45" s="12"/>
       <c r="D45" s="11"/>
       <c r="E45" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F45" s="12"/>
       <c r="G45" s="12"/>
@@ -21521,7 +21500,7 @@
       <c r="B47" s="12"/>
       <c r="C47" s="12"/>
       <c r="D47" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E47" s="15"/>
       <c r="F47" s="15"/>
@@ -21685,7 +21664,7 @@
     <row r="50" spans="1:52">
       <c r="A50" s="11"/>
       <c r="B50" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C50" s="12"/>
       <c r="D50" s="12"/>
@@ -21800,7 +21779,7 @@
         <v>23</v>
       </c>
       <c r="E52" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F52" s="15"/>
       <c r="G52" s="15"/>
@@ -21809,7 +21788,7 @@
       <c r="J52" s="15"/>
       <c r="K52" s="28"/>
       <c r="L52" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M52" s="15"/>
       <c r="N52" s="28"/>
@@ -21860,7 +21839,7 @@
         <v>1</v>
       </c>
       <c r="E53" s="17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F53" s="18"/>
       <c r="G53" s="18"/>
@@ -21869,7 +21848,7 @@
       <c r="J53" s="18"/>
       <c r="K53" s="29"/>
       <c r="L53" s="18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M53" s="18"/>
       <c r="N53" s="29"/>
@@ -22025,7 +22004,7 @@
       <c r="B56" s="12"/>
       <c r="C56" s="12"/>
       <c r="D56" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E56" s="12"/>
       <c r="F56" s="12"/>
@@ -22618,7 +22597,7 @@
     </row>
     <row r="67" spans="1:52">
       <c r="A67" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B67" s="8"/>
       <c r="C67" s="8"/>
@@ -22729,7 +22708,7 @@
     <row r="69" spans="1:52">
       <c r="A69" s="42"/>
       <c r="B69" s="43" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C69" s="43"/>
       <c r="D69" s="43"/>
@@ -22839,7 +22818,7 @@
     <row r="71" spans="1:52">
       <c r="A71" s="44"/>
       <c r="D71" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H71" s="45"/>
       <c r="I71" s="45"/>
@@ -22893,7 +22872,7 @@
       <c r="C72" s="45"/>
       <c r="D72" s="45"/>
       <c r="E72" s="45" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F72" s="45"/>
       <c r="G72" s="45"/>
@@ -22999,7 +22978,7 @@
     </row>
     <row r="74" spans="1:52">
       <c r="A74" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B74" s="8"/>
       <c r="C74" s="8"/>
@@ -23110,7 +23089,7 @@
     <row r="76" spans="1:52">
       <c r="A76" s="42"/>
       <c r="B76" s="43" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C76" s="43"/>
       <c r="D76" s="43"/>
@@ -23220,7 +23199,7 @@
     <row r="78" spans="1:52">
       <c r="A78" s="44"/>
       <c r="C78" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H78" s="45"/>
       <c r="I78" s="45"/>
@@ -23327,7 +23306,7 @@
       <c r="B80" s="45"/>
       <c r="C80" s="45"/>
       <c r="D80" s="45" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E80" s="45"/>
       <c r="F80" s="45"/>
@@ -23438,7 +23417,7 @@
       <c r="C82" s="45"/>
       <c r="D82" s="45"/>
       <c r="E82" s="45" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F82" s="45"/>
       <c r="G82" s="45"/>
@@ -23495,11 +23474,11 @@
       <c r="D83" s="45"/>
       <c r="E83" s="45"/>
       <c r="F83" s="45" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G83" s="45"/>
       <c r="H83" s="45" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I83" s="45"/>
       <c r="J83" s="45"/>
@@ -23658,7 +23637,7 @@
       <c r="A86" s="44"/>
       <c r="B86" s="45"/>
       <c r="C86" s="45" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D86" s="45"/>
       <c r="E86" s="45"/>
@@ -23769,7 +23748,7 @@
       <c r="B88" s="45"/>
       <c r="C88" s="45"/>
       <c r="D88" s="45" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E88" s="45"/>
       <c r="F88" s="45"/>
@@ -23880,7 +23859,7 @@
       <c r="C90" s="45"/>
       <c r="D90" s="45"/>
       <c r="E90" s="45" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F90" s="45"/>
       <c r="G90" s="45"/>
@@ -23937,12 +23916,12 @@
       <c r="D91" s="45"/>
       <c r="E91" s="45"/>
       <c r="F91" s="45" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G91" s="45"/>
       <c r="H91" s="45"/>
       <c r="I91" s="45" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J91" s="45"/>
       <c r="K91" s="45"/>
@@ -24045,7 +24024,7 @@
     <row r="93" spans="1:52">
       <c r="A93" s="44"/>
       <c r="B93" s="43" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C93" s="45"/>
       <c r="D93" s="45"/>
@@ -24157,7 +24136,7 @@
       <c r="B95" s="45"/>
       <c r="C95" s="45"/>
       <c r="D95" s="45" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E95" s="45"/>
       <c r="F95" s="45"/>
@@ -24318,7 +24297,7 @@
     </row>
     <row r="98" spans="1:52">
       <c r="A98" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B98" s="8"/>
       <c r="C98" s="8"/>
@@ -24485,7 +24464,7 @@
       <c r="B101" s="45"/>
       <c r="C101" s="45"/>
       <c r="D101" s="45" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E101" s="45"/>
       <c r="F101" s="45"/>
@@ -24538,7 +24517,7 @@
     </row>
     <row r="102" spans="1:52">
       <c r="A102" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B102" s="8"/>
       <c r="C102" s="8"/>
@@ -24651,7 +24630,7 @@
       <c r="B104" s="45"/>
       <c r="C104" s="45"/>
       <c r="D104" s="45" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E104" s="45"/>
       <c r="F104" s="45"/>
@@ -24706,9 +24685,7 @@
       <c r="A105" s="44"/>
       <c r="B105" s="45"/>
       <c r="C105" s="45"/>
-      <c r="D105" s="45" t="s">
-        <v>112</v>
-      </c>
+      <c r="D105" s="45"/>
       <c r="E105" s="45"/>
       <c r="F105" s="45"/>
       <c r="G105" s="45"/>
